--- a/Prototypes/Barley/Observations/MCPD11_12Leaves.xlsx
+++ b/Prototypes/Barley/Observations/MCPD11_12Leaves.xlsx
@@ -35,6 +35,9 @@
     <t>Barley.Structure.LeafTipsAppeared</t>
   </si>
   <si>
+    <t>Barley.Leaf.ExpandedCohortNo</t>
+  </si>
+  <si>
     <t>Tillers_perPlant</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>MCPD11_12CultOmakaSD3</t>
-  </si>
-  <si>
-    <t>Barley.Leaf.ExpandedCohortNo</t>
   </si>
 </sst>
 </file>
@@ -109,8 +109,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,12 +394,11 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection sqref="A1:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,1132 +413,1132 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
         <v>40780</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.05</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>40787</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>2.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1.5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>40795</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>3.6</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>40802</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>3.9</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>2.25</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>40810</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>5.55</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>3.6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>40816</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>6.25</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>4.3499999999999996</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
         <v>40827</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>7.45</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>5.6</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
+      <c r="E8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
         <v>40833</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>6.45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
         <v>40844</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>9.5500000000000007</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
+      <c r="E10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
         <v>40855</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>10.6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>10.55</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
         <v>40780</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
         <v>40787</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>2.35</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>1.4</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
         <v>40795</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>3.4</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
         <v>40802</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>3.45</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
         <v>40810</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>3.25</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>2.1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
         <v>40816</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>5.95</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>2.95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
         <v>40827</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>6.9</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>5.6</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>5</v>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
         <v>40833</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>7.6842105263157894</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>6.1578947368421053</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>5</v>
+      <c r="E19" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
         <v>40844</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>7.75</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>5</v>
+      <c r="E20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
         <v>40855</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>10.4</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>10.15</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>5</v>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
         <v>40780</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1.9</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.2</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
         <v>40787</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>2.75</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>5</v>
+      <c r="E23" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
         <v>40795</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>3.6</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="2">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
         <v>40802</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>3.9</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>0.95</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
         <v>40810</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>5.2</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>3.45</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
         <v>40816</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>6.05</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>4.2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>3.05</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40827</v>
+      </c>
+      <c r="C28" s="2">
         <v>7</v>
       </c>
-      <c r="B28" s="2">
-        <v>40827</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>5.7</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>5</v>
+      <c r="E28" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
         <v>40833</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>7.95</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>6.45</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>5</v>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
         <v>40844</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>7.85</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>5</v>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="2">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
         <v>40855</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>10.35</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>10.3</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>5</v>
+      <c r="E31" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="2">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
         <v>40816</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>1.95</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>0</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>5</v>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
         <v>40827</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>1.9</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>5</v>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="2">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1">
         <v>40833</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>3.7</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>2.15</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="2">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1">
         <v>40844</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>5.9</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>4.05</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>5</v>
+      <c r="E35" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
         <v>40855</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>7.9</v>
       </c>
-      <c r="D36" s="1">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>5</v>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="2">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1">
         <v>40863</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>7.8</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>5</v>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="2">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1">
         <v>40878</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>10.4</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>10.4</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
+      <c r="E38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1">
         <v>40816</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>1.9</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>0</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>5</v>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
         <v>40827</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>5</v>
+      <c r="E40" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="2">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
         <v>40833</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>3.85</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>2.35</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>0.65</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1">
         <v>40844</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>5.85</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>4</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>5</v>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="2">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1">
         <v>40855</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>7.15</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>5.85</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>5</v>
+      <c r="E43" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="2">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1">
         <v>40863</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>8.9499999999999993</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>7.4</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>5</v>
+      <c r="E44" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45" s="2">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
         <v>40878</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>10.1</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>10.1</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>5</v>
+      <c r="E45" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="2">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1">
         <v>40816</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>1.9</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>0</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>5</v>
+      <c r="E46" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1">
         <v>40827</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>3</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>2</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>5</v>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1">
         <v>40833</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>3.85</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>2</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="2">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1">
         <v>40844</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>5.95</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>4</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>5</v>
+      <c r="E49" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1">
         <v>40855</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>6.5</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>5.45</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>5</v>
+      <c r="E50" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1">
         <v>40863</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>6.8</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>5</v>
+      <c r="E51" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1">
         <v>40878</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="2">
         <v>9.8333333333333339</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>9.8333333333333339</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>5</v>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="2">
+        <v>12</v>
+      </c>
+      <c r="B53" s="1">
         <v>40882</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" s="2">
         <v>2.6</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>2.7</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>5</v>
+      <c r="E53" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" s="2">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1">
         <v>40889</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" s="2">
         <v>5.75</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>4</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>5</v>
+      <c r="E54" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="2">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1">
         <v>40897</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>6.9</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>5.2</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>5</v>
+      <c r="E55" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="2">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1">
         <v>40907</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>9.1578947368421044</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>7.8947368421052628</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>5</v>
+      <c r="E56" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" s="2">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1">
         <v>40919</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="2">
         <v>9.3157894736842106</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>9.3157894736842106</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>5</v>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" s="2">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1">
         <v>40882</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="2">
         <v>2.35</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>2.85</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>5</v>
+      <c r="E58" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="2">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1">
         <v>40889</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="2">
         <v>5.4</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>4</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>5</v>
+      <c r="E59" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="2">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1">
         <v>40897</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>6.65</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>5</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
+      <c r="E60" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" s="2">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
         <v>40907</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" s="2">
         <v>8.9</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>7.6</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>5</v>
+      <c r="E61" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" s="2">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1">
         <v>40919</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>9.4666666666666668</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>9.4666666666666668</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>5</v>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
         <v>40882</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="2">
         <v>2</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>5</v>
+      <c r="E63" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1">
         <v>40889</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>5.45</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>4</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>5</v>
+      <c r="E64" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" s="2">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
         <v>40897</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>6.6470588235294121</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>4.9411764705882355</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>5</v>
+      <c r="E65" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="2">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1">
         <v>40907</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="2">
         <v>8.7857142857142865</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>7.0714285714285712</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>5</v>
+      <c r="E66" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="2">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1">
         <v>40919</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" s="2">
         <v>8.7777777777777786</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>8.7777777777777786</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>5</v>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
